--- a/Testdata/ManagePopulationsPage_Data.xlsx
+++ b/Testdata/ManagePopulationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9362F-AD9B-4577-9000-14609EA44C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA79912-B69E-4033-9F98-145D71792113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -43,24 +43,6 @@
     <t>manage_population_file_to_upload</t>
   </si>
   <si>
-    <t>sample_population_data_sheet.xlsx</t>
-  </si>
-  <si>
-    <t>D:\\VersionControl\\pse.autotest\\ExtractionTemplate\\sample_population_data_sheet.xlsx</t>
-  </si>
-  <si>
-    <t>sample_population_data_sheet - Copy (1).xlsx</t>
-  </si>
-  <si>
-    <t>D:\\VersionControl\\pse.autotest\\ExtractionTemplate\\sample_population_data_sheet - Copy (1).xlsx</t>
-  </si>
-  <si>
-    <t>sample_population_data_sheet - Copy (2).xlsx</t>
-  </si>
-  <si>
-    <t>D:\\VersionControl\\pse.autotest\\ExtractionTemplate\\sample_population_data_sheet - Copy (2).xlsx</t>
-  </si>
-  <si>
     <t>Add_population_field</t>
   </si>
   <si>
@@ -83,6 +65,24 @@
   </si>
   <si>
     <t>This population is being created by Script for validation</t>
+  </si>
+  <si>
+    <t>\ExtractionTemplate\ManagePopulations\extraction-template-12.xlsx</t>
+  </si>
+  <si>
+    <t>extraction-template-12.xlsx</t>
+  </si>
+  <si>
+    <t>\ExtractionTemplate\ManagePopulations\extraction-template-14.xlsx</t>
+  </si>
+  <si>
+    <t>extraction-template-14.xlsx</t>
+  </si>
+  <si>
+    <t>\ExtractionTemplate\ManagePopulations\extraction-template-17.xlsx</t>
+  </si>
+  <si>
+    <t>extraction-template-17.xlsx</t>
   </si>
 </sst>
 </file>
@@ -441,13 +441,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -460,52 +460,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ManagePopulationsPage_Data.xlsx
+++ b/Testdata/ManagePopulationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA79912-B69E-4033-9F98-145D71792113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC0CB1-336D-4C33-8140-17E94A85B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>manage_population_file_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>manage_population_file_to_upload</t>
   </si>
@@ -52,47 +49,107 @@
     <t>pop_name</t>
   </si>
   <si>
-    <t>X_Automation_Test</t>
-  </si>
-  <si>
     <t>company_identifier</t>
   </si>
   <si>
-    <t>X_Automation_Test_2022</t>
-  </si>
-  <si>
     <t>pop_description</t>
   </si>
   <si>
-    <t>This population is being created by Script for validation</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManagePopulations\extraction-template-12.xlsx</t>
-  </si>
-  <si>
-    <t>extraction-template-12.xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManagePopulations\extraction-template-14.xlsx</t>
-  </si>
-  <si>
-    <t>extraction-template-14.xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManagePopulations\extraction-template-17.xlsx</t>
-  </si>
-  <si>
-    <t>extraction-template-17.xlsx</t>
+    <t>\Testdata\Templates\ManagePopulations\extraction-template-12.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManagePopulations\extraction-template-14.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManagePopulations\extraction-template-17.xlsx</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>pop1</t>
+  </si>
+  <si>
+    <t>pop2</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>This population is being created by Script for validation - population1</t>
+  </si>
+  <si>
+    <t>This population is being created by Script for validation - population2</t>
+  </si>
+  <si>
+    <t>This population is being created by Script for validation - population3</t>
+  </si>
+  <si>
+    <t>Edit_population_value</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation1</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation1_2022</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation2</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation2_2022</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation3</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation3_2022</t>
+  </si>
+  <si>
+    <t>Population1 - This population is being created by Script for validation</t>
+  </si>
+  <si>
+    <t>Population2 - This population is being created by Script for validation</t>
+  </si>
+  <si>
+    <t>Population3 - This population is being created by Script for validation</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_1</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_1_2022</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_2</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_2_2022</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_3</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_3_2022</t>
+  </si>
+  <si>
+    <t>manage_population_updatedfile_to_upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,77 +495,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A57BBF-4E09-492C-9596-59872866F622}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.77734375" customWidth="1"/>
+    <col min="6" max="6" width="57.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Testdata/ManagePopulationsPage_Data.xlsx
+++ b/Testdata/ManagePopulationsPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC0CB1-336D-4C33-8140-17E94A85B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283089E-8FF8-4AD2-8079-5D0A93C840E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>30</v>

--- a/Testdata/ManagePopulationsPage_Data.xlsx
+++ b/Testdata/ManagePopulationsPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283089E-8FF8-4AD2-8079-5D0A93C840E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2C372-D77E-4A20-9AE6-9A33B700ACA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -106,15 +106,6 @@
     <t>AutomationTestpopulation3_2022</t>
   </si>
   <si>
-    <t>Population1 - This population is being created by Script for validation</t>
-  </si>
-  <si>
-    <t>Population2 - This population is being created by Script for validation</t>
-  </si>
-  <si>
-    <t>Population3 - This population is being created by Script for validation</t>
-  </si>
-  <si>
     <t>Automation_Test_Population_1</t>
   </si>
   <si>
@@ -134,6 +125,15 @@
   </si>
   <si>
     <t>manage_population_updatedfile_to_upload</t>
+  </si>
+  <si>
+    <t>Population1 - This population is being updated by Script for validation</t>
+  </si>
+  <si>
+    <t>Population2 - This population is being updated by Script for validation</t>
+  </si>
+  <si>
+    <t>Population3 - This population is being updated by Script for validation</t>
   </si>
 </sst>
 </file>
@@ -175,12 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A57BBF-4E09-492C-9596-59872866F622}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -537,45 +536,45 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
+      <c r="F2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -585,45 +584,45 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+      <c r="F8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -633,47 +632,45 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
+      <c r="F10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
+      <c r="F11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ManagePopulationsPage_Data.xlsx
+++ b/Testdata/ManagePopulationsPage_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2C372-D77E-4A20-9AE6-9A33B700ACA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DE65E1-6182-4E01-A961-14BEE72FDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,39 +91,21 @@
     <t>AutomationTestpopulation1</t>
   </si>
   <si>
-    <t>AutomationTestpopulation1_2022</t>
-  </si>
-  <si>
     <t>AutomationTestpopulation2</t>
   </si>
   <si>
-    <t>AutomationTestpopulation2_2022</t>
-  </si>
-  <si>
     <t>AutomationTestpopulation3</t>
   </si>
   <si>
-    <t>AutomationTestpopulation3_2022</t>
-  </si>
-  <si>
     <t>Automation_Test_Population_1</t>
   </si>
   <si>
-    <t>Automation_Test_Population_1_2022</t>
-  </si>
-  <si>
     <t>Automation_Test_Population_2</t>
   </si>
   <si>
-    <t>Automation_Test_Population_2_2022</t>
-  </si>
-  <si>
     <t>Automation_Test_Population_3</t>
   </si>
   <si>
-    <t>Automation_Test_Population_3_2022</t>
-  </si>
-  <si>
     <t>manage_population_updatedfile_to_upload</t>
   </si>
   <si>
@@ -134,6 +116,24 @@
   </si>
   <si>
     <t>Population3 - This population is being updated by Script for validation</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation1_2023</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation2_2023</t>
+  </si>
+  <si>
+    <t>AutomationTestpopulation3_2023</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_1_2023</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_2_2023</t>
+  </si>
+  <si>
+    <t>Automation_Test_Population_3_2023</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A57BBF-4E09-492C-9596-59872866F622}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
